--- a/biology/Zoologie/Hyalinobatrachium/Hyalinobatrachium.xlsx
+++ b/biology/Zoologie/Hyalinobatrachium/Hyalinobatrachium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyalinobatrachium est un genre d'amphibiens de la famille des Centrolenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyalinobatrachium est un genre d'amphibiens de la famille des Centrolenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 32 espèces de ce genre se rencontrent dans le nord de l'Amérique du Sud et en Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 32 espèces de ce genre se rencontrent dans le nord de l'Amérique du Sud et en Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez certaines espèces comme H. aureoguttatum ou H. fleischmanni, le mâle « couve » les œufs afin de maintenir leur l'humidité. Chez H. cappellei, les mâles peuvent garder des œufs qui ne sont pas les siens juste pour séduire une partenaire.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (9 novembre 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (9 novembre 2017) :
 Hyalinobatrachium adespinosai Juan Manuel Guayasamin, 2019
 Hyalinobatrachium anachoretus Twomey, Delia &amp; Castroviejo-Fisher, 2014
 Hyalinobatrachium aureoguttatum (Barrera-Rodriguez &amp; Ruiz-Carranza, 1989)
@@ -636,7 +654,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ruiz-Carranza &amp; Lynch, 1991 : Ranas Centrolenidae de Colombia I. Propuesta de una nueva clasificacion generica. Lozania, vol. 57, p. 1-30.</t>
         </is>
